--- a/planets info.xlsx
+++ b/planets info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Earth</t>
   </si>
@@ -67,15 +67,21 @@
   <si>
     <t>Perihelion (km)</t>
   </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Orbit Days</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +100,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -118,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -126,14 +138,15 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,14 +464,14 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -478,6 +491,12 @@
       </c>
       <c r="F1" t="s">
         <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
@@ -500,8 +519,13 @@
       <c r="F2" s="5">
         <v>46001200</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="1"/>
+      <c r="G2" s="2">
+        <f>B2-F2</f>
+        <v>11907850</v>
+      </c>
+      <c r="H2" s="1">
+        <v>88</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -16879,20 +16903,33 @@
       <c r="XFC2" s="2"/>
       <c r="XFD2" s="1"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="7">
+        <v>108210000</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>108207348.82252268</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="4">
-        <v>2500000</v>
+      <c r="E3" s="3">
+        <v>108900000</v>
       </c>
+      <c r="F3" s="3">
+        <v>107500000</v>
+      </c>
+      <c r="G3" s="2">
+        <f>B3-F3</f>
+        <v>710000</v>
+      </c>
+      <c r="H3">
+        <v>225</v>
+      </c>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -16913,88 +16950,177 @@
       <c r="F4" s="3">
         <v>147100000</v>
       </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G3:G10" si="0">B4-F4</f>
+        <v>2500000</v>
+      </c>
       <c r="H4" s="3">
-        <f>E4-(E4+F4)/2</f>
-        <v>2500000</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>227920000</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>226932219.49332446</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>249200000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>206600000</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>21320000</v>
+      </c>
       <c r="H5" s="3">
-        <f>F4+I3</f>
-        <v>149600000</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="3">
+        <v>778570000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="D6" s="3">
         <f t="array" ref="D6:D9">B6:B9*SQRT(1-C6:C9^2)</f>
-        <v>0</v>
+        <v>777672570.14231288</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3">
+        <v>816600000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>740500000</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>38070000</v>
+      </c>
+      <c r="H6">
+        <v>4329</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>1433000000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1430751291.628283</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3">
+        <v>1514500000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1352600000</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>80400000</v>
+      </c>
+      <c r="H7">
+        <v>10753</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>1870000000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
       <c r="D8" s="3">
-        <v>0</v>
+        <v>1868020492.2858851</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <v>3003600000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2741300000</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>-871300000</v>
+      </c>
+      <c r="H8">
+        <v>30660</v>
+      </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>4495000000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.01</v>
+      </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>4494775244.380969</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>4545700000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4444500000</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>50500000</v>
+      </c>
+      <c r="H9">
+        <v>60225</v>
+      </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="3">
+        <v>5906000000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.24879999999999999</v>
+      </c>
       <c r="D10" s="3">
         <f t="array" ref="D10">B10:B13*SQRT(1-C10:C13^2)</f>
-        <v>0</v>
+        <v>5720285134.7809725</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <v>7375900000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4436800000</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1469200000</v>
+      </c>
+      <c r="H10">
+        <v>90520</v>
+      </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>

--- a/planets info.xlsx
+++ b/planets info.xlsx
@@ -81,7 +81,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,18 +96,6 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -143,10 +131,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +448,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +457,7 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,11 +504,11 @@
       <c r="F2" s="5">
         <v>46001200</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="5">
         <f>B2-F2</f>
         <v>11907850</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="5">
         <v>88</v>
       </c>
       <c r="I2" s="2"/>
@@ -16903,30 +16888,30 @@
       <c r="XFC2" s="2"/>
       <c r="XFD2" s="1"/>
     </row>
-    <row r="3" spans="1:16384" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>108210000</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>108207348.82252268</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>108900000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>107500000</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="5">
         <f>B3-F3</f>
         <v>710000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>225</v>
       </c>
       <c r="I3" s="4"/>
@@ -16941,20 +16926,20 @@
       <c r="C4" s="5">
         <v>1.6708600000000001E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>149579116.07923481</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>152100000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>147100000</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G3:G10" si="0">B4-F4</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G10" si="0">B4-F4</f>
         <v>2500000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>365</v>
       </c>
     </row>
@@ -16962,26 +16947,26 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>227920000</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>226932219.49332446</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>249200000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>206600000</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>21320000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>687</v>
       </c>
     </row>
@@ -16989,27 +16974,27 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>778570000</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <f t="array" ref="D6:D9">B6:B9*SQRT(1-C6:C9^2)</f>
         <v>777672570.14231288</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>816600000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>740500000</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>38070000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>4329</v>
       </c>
     </row>
@@ -17017,26 +17002,26 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>1433000000</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>1430751291.628283</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>1514500000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>1352600000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>80400000</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>10753</v>
       </c>
     </row>
@@ -17044,26 +17029,26 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>1870000000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>1868020492.2858851</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>3003600000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>2741300000</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
+      <c r="G8" s="5">
+        <f>B8-F8</f>
         <v>-871300000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>30660</v>
       </c>
     </row>
@@ -17071,26 +17056,26 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>4495000000</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>0.01</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>4494775244.380969</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>4545700000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>4444500000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>50500000</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>60225</v>
       </c>
     </row>
@@ -17098,27 +17083,27 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>5906000000</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.24879999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <f t="array" ref="D10">B10:B13*SQRT(1-C10:C13^2)</f>
         <v>5720285134.7809725</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>7375900000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>4436800000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>1469200000</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>90520</v>
       </c>
     </row>

--- a/planets info.xlsx
+++ b/planets info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Earth</t>
   </si>
@@ -68,16 +68,19 @@
     <t>Perihelion (km)</t>
   </si>
   <si>
-    <t>Delta</t>
+    <t>Orbit Days</t>
   </si>
   <si>
-    <t>Orbit Days</t>
+    <t>X Delta</t>
+  </si>
+  <si>
+    <t>Y Delta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -128,9 +131,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
     <col min="4" max="4" width="22.140625" customWidth="1"/>
     <col min="5" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
@@ -478,45 +478,50 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>57909050</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>0.20563000000000001</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <f t="array" ref="D2:D5">B2:B5*SQRT(1-C2:C5^2)</f>
         <v>56671522.541955024</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>69816900</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>46001200</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <f>B2-F2</f>
         <v>11907850</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
+        <f t="array" ref="H2:H10">D2:D10-E2:E10</f>
+        <v>-13145377.458044976</v>
+      </c>
+      <c r="I2" s="2">
         <v>88</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="1"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
@@ -16892,220 +16897,283 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>108210000</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>108207348.82252268</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>108900000</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>107500000</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="2">
         <f>B3-F3</f>
         <v>710000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
+        <v>-692651.17747731507</v>
+      </c>
+      <c r="I3" s="2">
         <v>225</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>149600000</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.6708600000000001E-2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>149579116.07923481</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>152100000</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>147100000</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <f t="shared" ref="G4:G10" si="0">B4-F4</f>
         <v>2500000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
+        <v>-2520883.9207651913</v>
+      </c>
+      <c r="I4" s="2">
         <v>365</v>
       </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>227920000</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>226932219.49332446</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>249200000</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>206600000</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>21320000</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
+        <v>-22267780.506675541</v>
+      </c>
+      <c r="I5" s="2">
         <v>687</v>
       </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>778570000</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <f t="array" ref="D6:D9">B6:B9*SQRT(1-C6:C9^2)</f>
         <v>777672570.14231288</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>816600000</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>740500000</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>38070000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
+        <v>-38927429.857687116</v>
+      </c>
+      <c r="I6" s="2">
         <v>4329</v>
       </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>1433000000</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>1430751291.628283</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>1514500000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>1352600000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>80400000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
+        <v>-83748708.371716976</v>
+      </c>
+      <c r="I7" s="2">
         <v>10753</v>
       </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>1870000000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>1868020492.2858851</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>3003600000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>2741300000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <f>B8-F8</f>
         <v>-871300000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
+        <v>-1135579507.7141149</v>
+      </c>
+      <c r="I8" s="2">
         <v>30660</v>
       </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>4495000000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>0.01</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>4494775244.380969</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>4545700000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>4444500000</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>50500000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
+        <v>-50924755.619030952</v>
+      </c>
+      <c r="I9" s="2">
         <v>60225</v>
       </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>5906000000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>0.24879999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <f t="array" ref="D10">B10:B13*SQRT(1-C10:C13^2)</f>
         <v>5720285134.7809725</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>7375900000</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>4436800000</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>1469200000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
+        <v>-1655614865.2190275</v>
+      </c>
+      <c r="I10" s="2">
         <v>90520</v>
       </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>

--- a/planets info.xlsx
+++ b/planets info.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/planets info.xlsx
+++ b/planets info.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17083,7 +17083,7 @@
         <v>1868020492.2858851</v>
       </c>
       <c r="E8" s="2">
-        <v>3003600000</v>
+        <v>2100600000</v>
       </c>
       <c r="F8" s="2">
         <v>2741300000</v>
@@ -17093,7 +17093,7 @@
         <v>-871300000</v>
       </c>
       <c r="H8" s="4">
-        <v>-1135579507.7141149</v>
+        <v>-232579507.7141149</v>
       </c>
       <c r="I8" s="2">
         <v>30660</v>
